--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_DDIRange.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_DDIRange.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pramod_Workspace\APT_Automation_IPA4\src\com\colt\qa\datalibrary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APT_phase1_deliverable24082020\APTAutomationProject\src\com\colt\qa\datalibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15780" windowHeight="3630" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15780" windowHeight="3630"/>
   </bookViews>
   <sheets>
-    <sheet name="DDI3" sheetId="5" r:id="rId1"/>
-    <sheet name="DDI2" sheetId="4" r:id="rId2"/>
-    <sheet name="DDI" sheetId="3" r:id="rId3"/>
+    <sheet name="DDI" sheetId="3" r:id="rId1"/>
+    <sheet name="DDI3" sheetId="5" r:id="rId2"/>
+    <sheet name="DDI2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
   <si>
     <t>TrunkValue</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>APT_VoiceService</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +548,7 @@
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>25</v>
@@ -584,50 +587,6 @@
         <v>22</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -642,7 +601,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +667,7 @@
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>25</v>
@@ -752,7 +711,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>25</v>
@@ -802,10 +761,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +830,7 @@
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>25</v>
@@ -910,6 +869,50 @@
         <v>22</v>
       </c>
       <c r="N2" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>13</v>
       </c>
     </row>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_DDIRange.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_DDIRange.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APT_phase1_deliverable24082020\APTAutomationProject\src\com\colt\qa\datalibrary\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15780" windowHeight="3630"/>
   </bookViews>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="26">
   <si>
     <t>TrunkValue</t>
   </si>
@@ -104,15 +99,12 @@
   </si>
   <si>
     <t>APT_VoiceService</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -294,7 +286,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -471,7 +463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -482,7 +474,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +540,7 @@
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>25</v>
@@ -601,7 +593,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +659,7 @@
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>25</v>
@@ -711,7 +703,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>25</v>
@@ -764,7 +756,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +822,7 @@
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>25</v>
@@ -874,7 +866,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>25</v>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_DDIRange.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_DDIRange.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APT_Phase1_Automation_Project_Deliverables\APTAutomationProject\src\com\colt\qa\datalibrary\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="5955"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="DDI" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -465,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
